--- a/References/Templates/Web MockUp/Prototype Web.xlsx
+++ b/References/Templates/Web MockUp/Prototype Web.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ecchi\Pictures\Web MockUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Capstone Project\References\Templates\Web MockUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách lái xe Dialog" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Xóa lái xe" sheetId="2" r:id="rId3"/>
     <sheet name="Cập nhật thông tin lái xe" sheetId="4" r:id="rId4"/>
     <sheet name="Thông tin doanh nghiệp" sheetId="5" r:id="rId5"/>
+    <sheet name="Tạo Quảng Cáo" sheetId="6" r:id="rId6"/>
+    <sheet name="Tạo thông tin khuyến mãi" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Số CMND</t>
   </si>
@@ -232,6 +234,27 @@
   </si>
   <si>
     <t>cần phải bổ sung nhiều thông tin liên quan đến doanh nghiệp</t>
+  </si>
+  <si>
+    <t>HOME/Service/Tạo quảng cáo</t>
+  </si>
+  <si>
+    <t>Tên quảng cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời lượng </t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>Tải ẢNH</t>
+  </si>
+  <si>
+    <t>Đăng quảng cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú (*) : về giá trị và thời lượng quảng cáo . Giá tiền  :                                               </t>
   </si>
 </sst>
 </file>
@@ -611,16 +634,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -631,47 +651,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,16 +668,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -705,7 +694,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -718,21 +712,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -745,6 +769,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,25 +1063,25 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="32" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1069,16 +1097,16 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1089,19 +1117,19 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1112,8 +1140,8 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="45"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
@@ -1133,8 +1161,8 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="5"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
@@ -1154,8 +1182,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="5"/>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
@@ -1195,11 +1223,11 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="5"/>
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
@@ -1218,11 +1246,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="5"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
@@ -1241,11 +1269,11 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="5"/>
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
@@ -1363,10 +1391,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1381,15 +1409,15 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1450,25 +1478,25 @@
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:R4"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="G4:H7"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:R4"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1489,22 +1517,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
@@ -1517,7 +1545,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="5"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
@@ -1528,38 +1556,38 @@
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
@@ -1570,101 +1598,101 @@
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
@@ -1677,15 +1705,15 @@
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -1698,13 +1726,13 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
@@ -1717,13 +1745,13 @@
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
@@ -1736,13 +1764,13 @@
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
@@ -1755,13 +1783,13 @@
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
@@ -1774,15 +1802,15 @@
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -1830,11 +1858,11 @@
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="4"/>
@@ -1866,15 +1894,15 @@
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1899,12 +1927,12 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="9"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1936,23 +1964,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1979,24 +2007,24 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
@@ -2010,37 +2038,37 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="48"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="48"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -2052,63 +2080,63 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="49"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="24" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="49"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="38">
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="39" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="26" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="5"/>
@@ -2123,17 +2151,17 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="40">
+      <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="41" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="5"/>
@@ -2148,17 +2176,17 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="40">
+      <c r="B11" s="27">
         <v>3</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="41" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="5"/>
@@ -2173,17 +2201,17 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="40">
+      <c r="B12" s="27">
         <v>4</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="41" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="5"/>
@@ -2198,17 +2226,17 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="40">
+      <c r="B13" s="27">
         <v>5</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="41" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="28" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="5"/>
@@ -2223,15 +2251,15 @@
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="5"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
@@ -2357,23 +2385,23 @@
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2405,22 +2433,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
@@ -2433,7 +2461,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="5"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
@@ -2444,38 +2472,38 @@
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
@@ -2486,99 +2514,99 @@
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
@@ -2591,15 +2619,15 @@
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -2612,13 +2640,13 @@
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
@@ -2631,13 +2659,13 @@
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
@@ -2650,13 +2678,13 @@
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
@@ -2669,13 +2697,13 @@
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
@@ -2688,15 +2716,15 @@
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -2744,11 +2772,11 @@
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2778,15 +2806,15 @@
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -2811,12 +2839,12 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="9"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2838,45 +2866,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="K2" s="22" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="K2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="49"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="29"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -2886,37 +2914,37 @@
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="49"/>
-      <c r="K4" s="28" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="29"/>
+      <c r="K4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="49"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="29"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -2926,17 +2954,17 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="49"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="29"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -2946,17 +2974,17 @@
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="29"/>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2966,17 +2994,17 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="29"/>
       <c r="K8" s="3"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2986,17 +3014,17 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="29"/>
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -3006,21 +3034,21 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="49"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="29"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -3030,15 +3058,15 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="29"/>
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -3048,15 +3076,15 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="29"/>
       <c r="K12" s="3"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3066,15 +3094,15 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="29"/>
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -3084,15 +3112,15 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="29"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -3102,15 +3130,15 @@
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="29"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -3120,15 +3148,15 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="29"/>
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -3138,15 +3166,15 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="49"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="29"/>
       <c r="K17" s="3"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -3156,15 +3184,15 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="49"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="29"/>
       <c r="K18" s="3"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -3174,15 +3202,15 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="29"/>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -3192,15 +3220,15 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="29"/>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -3210,15 +3238,15 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -3246,13 +3274,13 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3273,4 +3301,501 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:H15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Templates/Web MockUp/Prototype Web.xlsx
+++ b/References/Templates/Web MockUp/Prototype Web.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách lái xe Dialog" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Thông tin doanh nghiệp" sheetId="5" r:id="rId5"/>
     <sheet name="Tạo Quảng Cáo" sheetId="6" r:id="rId6"/>
     <sheet name="Tạo thông tin khuyến mãi" sheetId="7" r:id="rId7"/>
+    <sheet name="Admin Web" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>Số CMND</t>
   </si>
@@ -255,13 +256,124 @@
   </si>
   <si>
     <t xml:space="preserve">Ghi chú (*) : về giá trị và thời lượng quảng cáo . Giá tiền  :                                               </t>
+  </si>
+  <si>
+    <t>Nếu người đăng nhập là ADMIN thì sẽ chuyển đến trang quản lý</t>
+  </si>
+  <si>
+    <t>admin có các chức năng quản lý :</t>
+  </si>
+  <si>
+    <t>1- tìm kiếm danh sách user ( trạng thái đang hoạt động, pending - khi register , banned)</t>
+  </si>
+  <si>
+    <t>2- banned các user đang hoạt động hoặc kích hoạt/unban cho các user có trạng thái khác</t>
+  </si>
+  <si>
+    <t>3- cập nhật thông tin user ( doanh nghiệp )</t>
+  </si>
+  <si>
+    <t>4- duyệt các quảng cáo , khuyến mãi được chấp nhận</t>
+  </si>
+  <si>
+    <t>5- cần bổ sung thêm chức năng khác nếu có</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>User Manager</t>
+  </si>
+  <si>
+    <t>Service Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trong lay out này, khung bên trái vẫn là nơi hiển thị danh sách các link trong 1 tab </t>
+  </si>
+  <si>
+    <t>khung bên phải là trang chính của màn hình</t>
+  </si>
+  <si>
+    <t>User Manager/ Danh sách người dùng</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tên DN</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>dropdown list</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>TÌM</t>
+  </si>
+  <si>
+    <t>Type : 1 - company - 2 personal - 3 ALL</t>
+  </si>
+  <si>
+    <t>Status : 1 availbale - 2 pending - 3 register - 4 ALL</t>
+  </si>
+  <si>
+    <t>Paginator Template</t>
+  </si>
+  <si>
+    <t>admin có thể thay đổi thông tin chi tiết về người dùng ( trạng thái, thông tin doanh nghiệp)</t>
+  </si>
+  <si>
+    <t>THÔNG TIN CHI TIẾT VỀ NGƯỜi DÙNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> khi click vào button View của từng row, sẽ hiện ra dialog hiển thị thông tin chi tiết về user, ở trong dialog này</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>(View)</t>
+  </si>
+  <si>
+    <t>button ADD hoặc DELETE có thể để lên trên ( trên bảng )</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GĐốc DN</t>
+  </si>
+  <si>
+    <t>Số CMT</t>
+  </si>
+  <si>
+    <t>Ngày cấp</t>
+  </si>
+  <si>
+    <t>Tkhoản NH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +390,14 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -630,11 +750,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -679,6 +812,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,7 +918,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,25 +1250,25 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1097,16 +1284,16 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1117,19 +1304,19 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1140,8 +1327,8 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="5"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
@@ -1161,8 +1348,8 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="5"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
@@ -1182,8 +1369,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="5"/>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
@@ -1223,11 +1410,11 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="5"/>
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
@@ -1246,11 +1433,11 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="5"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
@@ -1269,11 +1456,11 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="5"/>
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
@@ -1391,10 +1578,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1517,22 +1704,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
@@ -1602,20 +1789,20 @@
         <v>22</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="46"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
@@ -1633,12 +1820,12 @@
         <v>12</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
@@ -1654,12 +1841,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
@@ -1709,11 +1896,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -1806,11 +1993,11 @@
         <v>51</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -1964,23 +2151,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2007,24 +2194,24 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="13"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
@@ -2038,37 +2225,37 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -2251,15 +2438,15 @@
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="5"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4"/>
@@ -2433,22 +2620,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
@@ -2518,20 +2705,20 @@
         <v>22</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="46"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
@@ -2547,12 +2734,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
@@ -2568,12 +2755,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
@@ -2623,11 +2810,11 @@
         <v>4</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="46"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
@@ -2720,11 +2907,11 @@
         <v>51</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="46"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
@@ -2772,11 +2959,11 @@
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2874,23 +3061,23 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
@@ -2920,8 +3107,8 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="50"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="29"/>
       <c r="K4" s="18" t="s">
         <v>67</v>
@@ -2934,16 +3121,16 @@
       <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="46"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="29"/>
       <c r="K5" s="3"/>
       <c r="L5" s="4"/>
@@ -2958,12 +3145,12 @@
         <v>62</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="29"/>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
@@ -2974,16 +3161,16 @@
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
       <c r="I7" s="29"/>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
@@ -2994,16 +3181,16 @@
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="29"/>
       <c r="K8" s="3"/>
       <c r="L8" s="4"/>
@@ -3014,10 +3201,10 @@
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="36"/>
       <c r="D9" s="38"/>
       <c r="E9" s="37"/>
@@ -3034,20 +3221,20 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="29"/>
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
@@ -3060,9 +3247,9 @@
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -3315,14 +3502,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
@@ -3340,39 +3527,39 @@
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="46"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="39" t="s">
         <v>72</v>
       </c>
@@ -3394,10 +3581,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3416,70 +3603,70 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3568,7 +3755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -3576,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="71"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3798,4 +3985,781 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="13"/>
+      <c r="K3" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="5"/>
+      <c r="K8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="5"/>
+      <c r="K19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/References/Templates/Web MockUp/Prototype Web.xlsx
+++ b/References/Templates/Web MockUp/Prototype Web.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Capstone Project\References\Templates\Web MockUp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách lái xe Dialog" sheetId="3" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="Tạo thông tin khuyến mãi" sheetId="7" r:id="rId7"/>
     <sheet name="Admin Web" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -377,7 +372,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -385,7 +380,7 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -393,7 +388,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -918,47 +913,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,7 +1015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,7 +1050,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1232,7 +1227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1243,13 +1238,13 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
@@ -1274,7 +1269,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1295,7 +1290,7 @@
       <c r="Q3" s="48"/>
       <c r="R3" s="49"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1313,7 @@
       <c r="Q4" s="48"/>
       <c r="R4" s="49"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1334,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1355,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1381,7 +1376,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1397,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1420,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1448,7 +1443,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1471,7 +1466,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1487,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1508,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1534,7 +1529,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1550,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1574,7 +1569,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1595,7 +1590,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1614,7 +1609,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1624,7 +1619,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1634,7 +1629,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1644,7 +1639,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1654,7 +1649,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1664,7 +1659,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1693,17 +1688,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
@@ -1724,7 +1719,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1741,7 +1736,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -1764,7 +1759,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -1783,7 +1778,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>22</v>
@@ -1806,7 +1801,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -1829,7 +1824,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -1850,7 +1845,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -1871,7 +1866,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -1890,7 +1885,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -1911,7 +1906,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
@@ -1930,7 +1925,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -1949,7 +1944,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>26</v>
@@ -1968,7 +1963,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -1987,7 +1982,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>51</v>
@@ -2008,7 +2003,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2025,7 +2020,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2042,7 +2037,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="14" t="s">
@@ -2063,7 +2058,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2080,7 +2075,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2097,7 +2092,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2105,7 +2100,10 @@
       <c r="O22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -2113,7 +2111,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2144,13 +2142,13 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>30</v>
       </c>
@@ -2173,7 +2171,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2192,7 +2190,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="66" t="s">
         <v>29</v>
@@ -2215,7 +2213,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2236,7 +2234,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="49"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2257,7 +2255,7 @@
       <c r="Q6" s="48"/>
       <c r="R6" s="49"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2278,7 +2276,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="22" t="s">
         <v>33</v>
@@ -2311,7 +2309,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="25">
         <v>1</v>
@@ -2336,7 +2334,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="27">
         <v>2</v>
@@ -2361,7 +2359,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="27">
         <v>3</v>
@@ -2386,7 +2384,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="27">
         <v>4</v>
@@ -2411,7 +2409,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="27">
         <v>5</v>
@@ -2436,7 +2434,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="68" t="s">
         <v>39</v>
@@ -2457,7 +2455,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2476,7 +2474,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2495,7 +2493,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2514,7 +2512,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2533,7 +2531,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2552,7 +2550,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2571,7 +2569,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2610,16 +2608,16 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
@@ -2640,7 +2638,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2657,7 +2655,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -2680,7 +2678,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -2699,7 +2697,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>22</v>
@@ -2722,7 +2720,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -2743,7 +2741,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -2764,7 +2762,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -2785,7 +2783,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -2804,7 +2802,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -2825,7 +2823,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
@@ -2844,7 +2842,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -2863,7 +2861,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>26</v>
@@ -2882,7 +2880,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -2901,7 +2899,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>51</v>
@@ -2922,7 +2920,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2939,7 +2937,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2956,7 +2954,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="50" t="s">
@@ -2975,7 +2973,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2992,7 +2990,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3009,7 +3007,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -3017,7 +3015,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3025,7 +3023,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -3057,10 +3055,10 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>60</v>
       </c>
@@ -3082,7 +3080,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3100,7 +3098,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3120,7 +3118,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="29"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>61</v>
       </c>
@@ -3140,7 +3138,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
@@ -3160,7 +3158,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>63</v>
       </c>
@@ -3180,7 +3178,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>52</v>
       </c>
@@ -3200,7 +3198,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>64</v>
       </c>
@@ -3220,7 +3218,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3242,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="9"/>
       <c r="C11" s="72"/>
@@ -3262,7 +3260,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3280,7 +3278,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3298,7 +3296,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3316,7 +3314,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3334,7 +3332,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3352,7 +3350,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3370,7 +3368,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3388,7 +3386,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3406,7 +3404,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3424,7 +3422,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -3442,7 +3440,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -3451,7 +3449,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3460,7 +3458,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -3498,10 +3496,10 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>68</v>
       </c>
@@ -3514,7 +3512,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3525,7 +3523,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="60" t="s">
         <v>69</v>
@@ -3538,7 +3536,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="60" t="s">
         <v>70</v>
@@ -3551,7 +3549,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>71</v>
@@ -3566,7 +3564,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3577,7 +3575,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3590,7 +3588,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3601,7 +3599,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="75" t="s">
         <v>74</v>
@@ -3614,7 +3612,7 @@
       <c r="H10" s="75"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3625,7 +3623,7 @@
       <c r="H11" s="75"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -3636,7 +3634,7 @@
       <c r="H12" s="75"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -3647,7 +3645,7 @@
       <c r="H13" s="75"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -3658,7 +3656,7 @@
       <c r="H14" s="75"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -3669,7 +3667,7 @@
       <c r="H15" s="75"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3680,7 +3678,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3691,7 +3689,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3702,7 +3700,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3713,7 +3711,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3724,7 +3722,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3759,10 +3757,10 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3773,7 +3771,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3784,7 +3782,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3795,7 +3793,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3806,7 +3804,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3817,7 +3815,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3828,7 +3826,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3839,7 +3837,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3850,7 +3848,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3861,7 +3859,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3872,7 +3870,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3883,7 +3881,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3894,7 +3892,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3905,7 +3903,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3916,7 +3914,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3927,7 +3925,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3938,7 +3936,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3949,7 +3947,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3960,7 +3958,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3971,7 +3969,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3991,14 +3989,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4008,45 +4006,45 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="79"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="13"/>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4067,17 +4065,17 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="2"/>
       <c r="K5" s="3" t="s">
         <v>78</v>
@@ -4090,7 +4088,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -4111,7 +4109,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="40" t="s">
         <v>88</v>
@@ -4138,7 +4136,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="40" t="s">
         <v>89</v>
@@ -4163,7 +4161,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="40" t="s">
         <v>90</v>
@@ -4188,7 +4186,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4207,7 +4205,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -4230,7 +4228,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -4251,7 +4249,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="C13" s="20" t="s">
@@ -4282,7 +4280,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="3"/>
       <c r="C14" s="20"/>
@@ -4295,17 +4293,17 @@
         <v>105</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="80" t="s">
+      <c r="L14" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="3"/>
       <c r="C15" s="20"/>
@@ -4328,7 +4326,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="C16" s="20"/>
@@ -4349,7 +4347,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="3"/>
       <c r="C17" s="20"/>
@@ -4372,7 +4370,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="3"/>
       <c r="C18" s="20"/>
@@ -4395,17 +4393,17 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="5"/>
       <c r="K19" s="3" t="s">
         <v>106</v>
@@ -4418,7 +4416,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14" t="s">
@@ -4441,7 +4439,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -4460,23 +4458,23 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77" t="s">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4487,7 +4485,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>101</v>
       </c>
@@ -4500,7 +4498,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>89</v>
       </c>
@@ -4513,7 +4511,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>107</v>
       </c>
@@ -4526,7 +4524,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>108</v>
       </c>
@@ -4539,7 +4537,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
@@ -4552,7 +4550,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -4565,7 +4563,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
@@ -4578,7 +4576,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -4591,7 +4589,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>109</v>
       </c>
@@ -4604,7 +4602,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>110</v>
       </c>
@@ -4617,7 +4615,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
@@ -4630,7 +4628,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>111</v>
       </c>
@@ -4643,7 +4641,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4654,7 +4652,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4665,7 +4663,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4676,7 +4674,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4687,7 +4685,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4698,7 +4696,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4709,7 +4707,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4720,7 +4718,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4731,7 +4729,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4744,6 +4742,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="K3:P3"/>
@@ -4751,13 +4756,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/References/Templates/Web MockUp/Prototype Web.xlsx
+++ b/References/Templates/Web MockUp/Prototype Web.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Capstone Project\References\Templates\Web MockUp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách lái xe Dialog" sheetId="3" r:id="rId1"/>
@@ -193,12 +198,6 @@
     <t>trạng thái hiện tại</t>
   </si>
   <si>
-    <t>vị trí hiện tại</t>
-  </si>
-  <si>
-    <t>vị trí sắp tới</t>
-  </si>
-  <si>
     <t>khi người dùng chọn 1 hàng trong bảng, Dialog này sẽ hiện ra hiển thị thông tin chi tiết về lái xe taxi</t>
   </si>
   <si>
@@ -316,9 +315,6 @@
     <t>TÌM</t>
   </si>
   <si>
-    <t>Type : 1 - company - 2 personal - 3 ALL</t>
-  </si>
-  <si>
     <t>Status : 1 availbale - 2 pending - 3 register - 4 ALL</t>
   </si>
   <si>
@@ -362,6 +358,15 @@
   </si>
   <si>
     <t>Tkhoản NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vị trí sắp tới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vị trí hiện tại </t>
+  </si>
+  <si>
+    <t>Type : 1 - company - 2 personal - 3 Customer - 4 ALL</t>
   </si>
 </sst>
 </file>
@@ -372,7 +377,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -380,7 +385,7 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -388,7 +393,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -913,6 +918,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -934,26 +954,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,7 +1232,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1238,13 +1243,13 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
@@ -1269,7 +1274,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1280,7 +1285,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="K3" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
@@ -1290,7 +1295,7 @@
       <c r="Q3" s="48"/>
       <c r="R3" s="49"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -1313,7 +1318,7 @@
       <c r="Q4" s="48"/>
       <c r="R4" s="49"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1339,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1360,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1376,7 +1381,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +1402,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1425,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1429,7 +1434,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="60" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -1443,7 +1448,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1452,7 +1457,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="60" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -1466,7 +1471,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1487,7 +1492,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1513,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1529,7 +1534,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1555,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1569,12 +1574,12 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="4"/>
@@ -1590,7 +1595,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1609,7 +1614,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1619,7 +1624,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1629,7 +1634,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1639,7 +1644,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1649,7 +1654,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1659,7 +1664,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1688,17 +1693,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1724,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1736,7 +1741,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -1759,7 +1764,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -1778,7 +1783,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>22</v>
@@ -1801,7 +1806,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -1824,7 +1829,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -1845,7 +1850,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -1866,7 +1871,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -1885,7 +1890,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -1906,7 +1911,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
@@ -1925,7 +1930,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -1944,7 +1949,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>26</v>
@@ -1963,7 +1968,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -1982,7 +1987,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>51</v>
@@ -2003,7 +2008,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2020,7 +2025,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2037,7 +2042,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="14" t="s">
@@ -2058,7 +2063,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2075,7 +2080,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2092,7 +2097,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2100,7 +2105,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>1</v>
       </c>
@@ -2111,7 +2116,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2138,17 +2143,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2176,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2190,7 +2195,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="66" t="s">
         <v>29</v>
@@ -2213,7 +2218,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2234,7 +2239,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="49"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2255,7 +2260,7 @@
       <c r="Q6" s="48"/>
       <c r="R6" s="49"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2276,7 +2281,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="22" t="s">
         <v>33</v>
@@ -2309,7 +2314,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="25">
         <v>1</v>
@@ -2334,7 +2339,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="27">
         <v>2</v>
@@ -2359,7 +2364,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="27">
         <v>3</v>
@@ -2384,7 +2389,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="27">
         <v>4</v>
@@ -2409,7 +2414,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="27">
         <v>5</v>
@@ -2434,7 +2439,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="68" t="s">
         <v>39</v>
@@ -2455,7 +2460,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2474,7 +2479,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2493,7 +2498,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2512,7 +2517,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2531,7 +2536,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2550,7 +2555,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2569,7 +2574,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2607,17 +2612,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +2643,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2655,7 +2660,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -2678,7 +2683,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -2697,7 +2702,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>22</v>
@@ -2720,7 +2725,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -2741,7 +2746,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -2762,7 +2767,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -2783,7 +2788,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -2802,7 +2807,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -2823,7 +2828,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
@@ -2842,7 +2847,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -2861,7 +2866,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>26</v>
@@ -2880,7 +2885,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -2899,7 +2904,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>51</v>
@@ -2920,7 +2925,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2937,7 +2942,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2954,11 +2959,11 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="61"/>
       <c r="E19" s="51"/>
@@ -2973,7 +2978,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2990,7 +2995,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3007,7 +3012,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -3015,7 +3020,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3023,7 +3028,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -3051,16 +3056,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
@@ -3080,7 +3085,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3098,7 +3103,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3109,7 +3114,7 @@
       <c r="H4" s="55"/>
       <c r="I4" s="29"/>
       <c r="K4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -3118,9 +3123,9 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="29"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="50"/>
@@ -3138,9 +3143,9 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="50"/>
@@ -3158,9 +3163,9 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="50"/>
@@ -3178,7 +3183,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>52</v>
       </c>
@@ -3198,9 +3203,9 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="36"/>
@@ -3218,13 +3223,13 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="60"/>
       <c r="C10" s="64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="71"/>
@@ -3242,7 +3247,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="9"/>
       <c r="C11" s="72"/>
@@ -3260,7 +3265,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3278,7 +3283,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3296,7 +3301,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3314,7 +3319,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3332,7 +3337,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3350,7 +3355,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3368,7 +3373,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3386,7 +3391,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3404,7 +3409,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3422,7 +3427,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -3440,7 +3445,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -3449,7 +3454,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3458,7 +3463,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -3493,15 +3498,15 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B10" sqref="B10:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
@@ -3512,7 +3517,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3523,10 +3528,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="50"/>
@@ -3536,10 +3541,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="50"/>
@@ -3549,22 +3554,22 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="60"/>
       <c r="D6" s="50"/>
       <c r="E6" s="61"/>
       <c r="F6" s="61"/>
       <c r="G6" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3575,12 +3580,12 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="4"/>
@@ -3588,7 +3593,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3599,10 +3604,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="75"/>
@@ -3612,7 +3617,7 @@
       <c r="H10" s="75"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3623,7 +3628,7 @@
       <c r="H11" s="75"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -3634,7 +3639,7 @@
       <c r="H12" s="75"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -3645,7 +3650,7 @@
       <c r="H13" s="75"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -3656,7 +3661,7 @@
       <c r="H14" s="75"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -3667,7 +3672,7 @@
       <c r="H15" s="75"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3678,7 +3683,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3689,7 +3694,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3700,7 +3705,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3711,7 +3716,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3722,7 +3727,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3754,13 +3759,13 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B3" sqref="B3:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3771,7 +3776,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3782,7 +3787,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3793,7 +3798,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3804,7 +3809,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3815,7 +3820,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3826,7 +3831,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3837,7 +3842,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3848,7 +3853,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3859,7 +3864,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3870,7 +3875,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3881,7 +3886,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3892,7 +3897,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3903,7 +3908,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3914,7 +3919,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3925,7 +3930,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3936,7 +3941,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3947,7 +3952,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3958,7 +3963,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3969,7 +3974,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3989,14 +3994,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4006,45 +4011,45 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="79"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="84"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="13"/>
-      <c r="K3" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="K3" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4055,7 +4060,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="K4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -4065,20 +4070,20 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
-      <c r="B5" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="B5" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="2"/>
       <c r="K5" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -4088,7 +4093,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -4099,7 +4104,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="K6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -4109,24 +4114,24 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="5"/>
       <c r="K7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -4136,22 +4141,22 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="51"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="51"/>
       <c r="I8" s="5"/>
       <c r="K8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -4161,18 +4166,18 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
@@ -4186,7 +4191,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4205,20 +4210,20 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="K11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -4228,7 +4233,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -4239,7 +4244,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="K12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -4249,26 +4254,26 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="C13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="I13" s="5"/>
       <c r="K13" s="3"/>
@@ -4280,7 +4285,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="3"/>
       <c r="C14" s="20"/>
@@ -4290,20 +4295,20 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
+      <c r="L14" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="3"/>
       <c r="C15" s="20"/>
@@ -4313,11 +4318,11 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -4326,7 +4331,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="C16" s="20"/>
@@ -4336,7 +4341,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
@@ -4347,7 +4352,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="3"/>
       <c r="C17" s="20"/>
@@ -4357,10 +4362,10 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -4370,7 +4375,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="3"/>
       <c r="C18" s="20"/>
@@ -4380,10 +4385,10 @@
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K18" s="43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="44"/>
@@ -4393,20 +4398,20 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
+      <c r="C19" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="5"/>
       <c r="K19" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -4416,14 +4421,14 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -4439,7 +4444,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -4458,23 +4463,23 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="84"/>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4485,9 +4490,9 @@
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -4498,9 +4503,9 @@
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4511,9 +4516,9 @@
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4524,9 +4529,9 @@
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4537,9 +4542,9 @@
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4550,9 +4555,9 @@
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4563,9 +4568,9 @@
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4576,9 +4581,9 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4589,9 +4594,9 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -4602,9 +4607,9 @@
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4615,7 +4620,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
@@ -4628,9 +4633,9 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4641,7 +4646,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4652,7 +4657,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4663,7 +4668,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4674,7 +4679,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4685,7 +4690,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4696,7 +4701,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4707,7 +4712,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4718,7 +4723,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4729,7 +4734,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4742,6 +4747,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="C8:D8"/>
@@ -4749,13 +4761,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/References/Templates/Web MockUp/Prototype Web.xlsx
+++ b/References/Templates/Web MockUp/Prototype Web.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Capstone Project\References\Templates\Web MockUp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách lái xe Dialog" sheetId="3" r:id="rId1"/>
@@ -377,7 +372,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -385,7 +380,7 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -393,7 +388,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -918,47 +913,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,7 +1227,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1246,10 +1241,10 @@
       <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
@@ -1274,7 +1269,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1295,7 +1290,7 @@
       <c r="Q3" s="48"/>
       <c r="R3" s="49"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1313,7 @@
       <c r="Q4" s="48"/>
       <c r="R4" s="49"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1334,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1355,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -1381,7 +1376,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1397,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1420,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -1448,7 +1443,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1471,7 +1466,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1487,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1508,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -1534,7 +1529,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1550,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1574,7 +1569,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1595,7 +1590,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1614,7 +1609,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1624,7 +1619,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -1634,7 +1629,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1644,7 +1639,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -1654,7 +1649,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1664,7 +1659,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1694,16 +1689,16 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
@@ -1724,7 +1719,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1741,7 +1736,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -1764,7 +1759,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -1783,7 +1778,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>22</v>
@@ -1806,7 +1801,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -1829,7 +1824,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -1850,7 +1845,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -1871,7 +1866,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -1890,7 +1885,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -1911,7 +1906,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
@@ -1930,7 +1925,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -1949,7 +1944,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>26</v>
@@ -1968,7 +1963,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -1987,7 +1982,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>51</v>
@@ -2008,7 +2003,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2025,7 +2020,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2042,7 +2037,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="14" t="s">
@@ -2063,7 +2058,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2080,7 +2075,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2097,7 +2092,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2105,7 +2100,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>1</v>
       </c>
@@ -2116,7 +2111,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2147,13 +2142,13 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>30</v>
       </c>
@@ -2176,7 +2171,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2195,7 +2190,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="66" t="s">
         <v>29</v>
@@ -2218,7 +2213,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2239,7 +2234,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="49"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2260,7 +2255,7 @@
       <c r="Q6" s="48"/>
       <c r="R6" s="49"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2281,7 +2276,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="22" t="s">
         <v>33</v>
@@ -2314,7 +2309,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="25">
         <v>1</v>
@@ -2339,7 +2334,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="27">
         <v>2</v>
@@ -2364,7 +2359,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="27">
         <v>3</v>
@@ -2389,7 +2384,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="27">
         <v>4</v>
@@ -2414,7 +2409,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="27">
         <v>5</v>
@@ -2439,7 +2434,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="68" t="s">
         <v>39</v>
@@ -2460,7 +2455,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2479,7 +2474,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2498,7 +2493,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2517,7 +2512,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2536,7 +2531,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2555,7 +2550,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2574,7 +2569,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2612,17 +2607,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
@@ -2643,7 +2638,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2660,7 +2655,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -2683,7 +2678,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -2702,7 +2697,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>22</v>
@@ -2725,7 +2720,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="9" t="s">
         <v>23</v>
@@ -2746,7 +2741,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -2767,7 +2762,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -2788,7 +2783,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
         <v>24</v>
@@ -2807,7 +2802,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
         <v>4</v>
@@ -2828,7 +2823,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
@@ -2847,7 +2842,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -2866,7 +2861,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>26</v>
@@ -2885,7 +2880,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -2904,7 +2899,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>51</v>
@@ -2925,7 +2920,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2942,7 +2937,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2959,7 +2954,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="50" t="s">
@@ -2978,7 +2973,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2995,7 +2990,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3012,7 +3007,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -3020,7 +3015,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3028,7 +3023,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -3056,14 +3051,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>58</v>
       </c>
@@ -3085,7 +3080,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3103,7 +3098,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3123,7 +3118,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="29"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>59</v>
       </c>
@@ -3143,7 +3138,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
@@ -3163,7 +3158,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="67" t="s">
         <v>61</v>
       </c>
@@ -3183,7 +3178,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="67" t="s">
         <v>52</v>
       </c>
@@ -3203,7 +3198,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>62</v>
       </c>
@@ -3223,7 +3218,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>63</v>
       </c>
@@ -3247,7 +3242,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="9"/>
       <c r="C11" s="72"/>
@@ -3265,7 +3260,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3283,7 +3278,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3301,7 +3296,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3319,7 +3314,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3337,7 +3332,7 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3355,7 +3350,7 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3373,7 +3368,7 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3391,7 +3386,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3409,7 +3404,7 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3427,7 +3422,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -3445,7 +3440,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -3454,7 +3449,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3463,7 +3458,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K24" s="6"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -3501,10 +3496,10 @@
       <selection activeCell="B10" sqref="B10:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>66</v>
       </c>
@@ -3517,7 +3512,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3528,7 +3523,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="60" t="s">
         <v>67</v>
@@ -3541,7 +3536,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="60" t="s">
         <v>68</v>
@@ -3554,7 +3549,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="60" t="s">
         <v>69</v>
@@ -3569,7 +3564,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3580,7 +3575,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3593,7 +3588,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3604,7 +3599,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="75" t="s">
         <v>72</v>
@@ -3617,7 +3612,7 @@
       <c r="H10" s="75"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3628,7 +3623,7 @@
       <c r="H11" s="75"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -3639,7 +3634,7 @@
       <c r="H12" s="75"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -3650,7 +3645,7 @@
       <c r="H13" s="75"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -3661,7 +3656,7 @@
       <c r="H14" s="75"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -3672,7 +3667,7 @@
       <c r="H15" s="75"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3683,7 +3678,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3694,7 +3689,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3705,7 +3700,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3716,7 +3711,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3727,7 +3722,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3762,10 +3757,10 @@
       <selection activeCell="B3" sqref="B3:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3776,7 +3771,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3787,7 +3782,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3798,7 +3793,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3809,7 +3804,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3820,7 +3815,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3831,7 +3826,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3842,7 +3837,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3853,7 +3848,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3864,7 +3859,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3875,7 +3870,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -3886,7 +3881,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3897,7 +3892,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3908,7 +3903,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -3919,7 +3914,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3930,7 +3925,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3941,7 +3936,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -3952,7 +3947,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3963,7 +3958,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -3974,7 +3969,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3995,13 +3990,13 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -4011,45 +4006,45 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="84"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="13"/>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4070,17 +4065,17 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="I5" s="2"/>
       <c r="K5" s="3" t="s">
         <v>76</v>
@@ -4093,7 +4088,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -4114,7 +4109,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="40" t="s">
         <v>86</v>
@@ -4141,7 +4136,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="40" t="s">
         <v>87</v>
@@ -4166,7 +4161,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="40" t="s">
         <v>88</v>
@@ -4191,7 +4186,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4210,7 +4205,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -4233,7 +4228,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -4254,7 +4249,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="C13" s="20" t="s">
@@ -4285,7 +4280,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="3"/>
       <c r="C14" s="20"/>
@@ -4298,17 +4293,17 @@
         <v>102</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="3"/>
       <c r="C15" s="20"/>
@@ -4331,7 +4326,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="3"/>
       <c r="C16" s="20"/>
@@ -4352,7 +4347,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="3"/>
       <c r="C17" s="20"/>
@@ -4375,7 +4370,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="3"/>
       <c r="C18" s="20"/>
@@ -4398,17 +4393,17 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
       <c r="I19" s="5"/>
       <c r="K19" s="3" t="s">
         <v>103</v>
@@ -4421,7 +4416,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="C20" s="14" t="s">
@@ -4444,7 +4439,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -4463,23 +4458,23 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="84"/>
       <c r="I24" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -4490,7 +4485,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -4503,7 +4498,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>87</v>
       </c>
@@ -4516,7 +4511,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>104</v>
       </c>
@@ -4529,7 +4524,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>105</v>
       </c>
@@ -4542,7 +4537,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
@@ -4555,7 +4550,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>92</v>
       </c>
@@ -4568,7 +4563,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -4581,7 +4576,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
@@ -4594,7 +4589,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>106</v>
       </c>
@@ -4607,7 +4602,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>107</v>
       </c>
@@ -4620,7 +4615,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
@@ -4633,7 +4628,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
@@ -4646,7 +4641,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4657,7 +4652,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4668,7 +4663,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4679,7 +4674,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4690,7 +4685,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4701,7 +4696,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4712,7 +4707,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4723,7 +4718,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4734,7 +4729,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -4747,6 +4742,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="K3:P3"/>
@@ -4754,13 +4756,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
